--- a/Stimuli.xlsx
+++ b/Stimuli.xlsx
@@ -8,6 +8,7 @@
     <sheet state="visible" name="list2" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="list3" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="list4" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="practice" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="254">
   <si>
     <t>List</t>
   </si>
@@ -59,6 +60,9 @@
     <t>object number</t>
   </si>
   <si>
+    <t>image list</t>
+  </si>
+  <si>
     <t>A bowling ball dropped and smashed a porcelain figure</t>
   </si>
   <si>
@@ -726,13 +730,61 @@
   </si>
   <si>
     <t>A bowling ball  dropped and smashed a vase</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>A bowling ball dropped and smashed a teacup</t>
+  </si>
+  <si>
+    <t>cupB.jpg</t>
+  </si>
+  <si>
+    <t>practice_s</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>A balloon dropped and touched a cigarette</t>
+  </si>
+  <si>
+    <t>cigaretteB.jpg</t>
+  </si>
+  <si>
+    <t>A knife was placed on a hammer</t>
+  </si>
+  <si>
+    <t>hammerB.jpg</t>
+  </si>
+  <si>
+    <t>A bowling ball dropped and touched a bottle</t>
+  </si>
+  <si>
+    <t>bookB.jpg</t>
+  </si>
+  <si>
+    <t>practice_n</t>
+  </si>
+  <si>
+    <t>A balloon dropped and smashed a cup</t>
+  </si>
+  <si>
+    <t>bananaB.jpg</t>
+  </si>
+  <si>
+    <t>A fork was placed on a stool</t>
+  </si>
+  <si>
+    <t>tableB.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -776,6 +828,12 @@
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -811,7 +869,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -836,6 +894,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -853,6 +912,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,6 +950,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1214,99 +1289,118 @@
       <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6">
         <v>1.0</v>
       </c>
       <c r="F2" s="7">
         <v>1.0</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f t="shared" ref="H2:H73" si="1">CONCATENATE("'",B2, "'", ",")</f>
+        <v>'figureS.jpg',</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="6">
         <v>1.0</v>
       </c>
       <c r="F3" s="7">
         <v>2.0</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'cakeS.jpg',</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="6">
         <v>1.0</v>
       </c>
       <c r="F4" s="7">
         <v>3.0</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tvS.jpg',</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>1.0</v>
       </c>
       <c r="F5" s="7">
         <v>4.0</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'crackerS.jpg',</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="6">
         <v>1.0</v>
@@ -1314,19 +1408,23 @@
       <c r="F6" s="7">
         <v>5.0</v>
       </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'wineglassS.jpg',</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>1.0</v>
@@ -1334,19 +1432,23 @@
       <c r="F7" s="7">
         <v>6.0</v>
       </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'eggS.jpg',</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="6">
         <v>1.0</v>
@@ -1354,19 +1456,23 @@
       <c r="F8" s="7">
         <v>7.0</v>
       </c>
+      <c r="H8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'eggflanS.jpg',</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>1.0</v>
@@ -1374,19 +1480,23 @@
       <c r="F9" s="7">
         <v>8.0</v>
       </c>
+      <c r="H9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'blackberryS.jpg',</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6">
         <v>1.0</v>
@@ -1394,19 +1504,23 @@
       <c r="F10" s="7">
         <v>9.0</v>
       </c>
+      <c r="H10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'glassesS.jpg',</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6">
         <v>1.0</v>
@@ -1414,19 +1528,23 @@
       <c r="F11" s="7">
         <v>10.0</v>
       </c>
+      <c r="H11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bananaS.jpg',</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6">
         <v>1.0</v>
@@ -1434,19 +1552,23 @@
       <c r="F12" s="7">
         <v>11.0</v>
       </c>
+      <c r="H12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'icecreamS.jpg',</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6">
         <v>1.0</v>
@@ -1454,19 +1576,23 @@
       <c r="F13" s="7">
         <v>12.0</v>
       </c>
+      <c r="H13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'iPadS.jpg',</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="6">
         <v>1.0</v>
@@ -1474,19 +1600,23 @@
       <c r="F14" s="7">
         <v>13.0</v>
       </c>
+      <c r="H14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'iphoneS.png',</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="6">
         <v>1.0</v>
@@ -1494,19 +1624,23 @@
       <c r="F15" s="7">
         <v>14.0</v>
       </c>
+      <c r="H15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'lampS.jpg',</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6">
         <v>1.0</v>
@@ -1514,19 +1648,23 @@
       <c r="F16" s="7">
         <v>15.0</v>
       </c>
+      <c r="H16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'mirrorS.jpg',</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>1.0</v>
@@ -1534,19 +1672,23 @@
       <c r="F17" s="7">
         <v>16.0</v>
       </c>
+      <c r="H17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'muffinS.jpg',</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6">
         <v>1.0</v>
@@ -1554,19 +1696,23 @@
       <c r="F18" s="7">
         <v>17.0</v>
       </c>
+      <c r="H18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'donutS.jpg',</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="6">
         <v>1.0</v>
@@ -1574,19 +1720,23 @@
       <c r="F19" s="7">
         <v>18.0</v>
       </c>
+      <c r="H19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tortitaS.jpg',</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="6">
         <v>1.0</v>
@@ -1594,19 +1744,23 @@
       <c r="F20" s="7">
         <v>19.0</v>
       </c>
+      <c r="H20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'plateS.jpg',</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="6">
         <v>1.0</v>
@@ -1614,19 +1768,23 @@
       <c r="F21" s="7">
         <v>20.0</v>
       </c>
+      <c r="H21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'strawberryS.jpg',</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6">
         <v>1.0</v>
@@ -1634,19 +1792,23 @@
       <c r="F22" s="7">
         <v>21.0</v>
       </c>
+      <c r="H22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'sushiS.jpg',</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="6">
         <v>1.0</v>
@@ -1654,19 +1816,23 @@
       <c r="F23" s="7">
         <v>22.0</v>
       </c>
+      <c r="H23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tileS.jpg',</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="6">
         <v>1.0</v>
@@ -1674,19 +1840,23 @@
       <c r="F24" s="7">
         <v>23.0</v>
       </c>
+      <c r="H24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tomatoS.jpg',</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="6">
         <v>1.0</v>
@@ -1694,821 +1864,1017 @@
       <c r="F25" s="7">
         <v>24.0</v>
       </c>
+      <c r="H25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'vaseS.jpg',</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>69</v>
       </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="E26" s="6">
         <v>1.0</v>
       </c>
+      <c r="H26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'sponge.jpg',</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>69</v>
+      <c r="B27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="6">
         <v>1.0</v>
       </c>
+      <c r="H27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'plate.jpg',</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>69</v>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="E28" s="6">
         <v>1.0</v>
       </c>
+      <c r="H28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'guitar.jpg',</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>1.0</v>
       </c>
+      <c r="H29" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bowl.jpg',</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>16</v>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
         <v>1.0</v>
       </c>
+      <c r="H30" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'nail.jpg',</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6">
         <v>1.0</v>
       </c>
+      <c r="H31" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'hat.jpg',</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6">
         <v>1.0</v>
       </c>
+      <c r="H32" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'watermelon.jpg',</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6">
         <v>1.0</v>
       </c>
+      <c r="H33" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'car.jpg',</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
+      <c r="B34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6">
         <v>1.0</v>
       </c>
+      <c r="H34" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'spacesuit.jpg',</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6">
         <v>1.0</v>
       </c>
+      <c r="H35" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'knife.jpg',</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>16</v>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
         <v>1.0</v>
       </c>
+      <c r="H36" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'lion.jpg',</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
+      <c r="B37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6">
         <v>1.0</v>
       </c>
+      <c r="H37" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tennisball.jpg',</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
         <v>1.0</v>
       </c>
+      <c r="H38" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'ladder.jpg',</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>94</v>
+      <c r="B39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6">
         <v>1.0</v>
       </c>
+      <c r="H39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bottlecap.jpg',</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>94</v>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6">
         <v>1.0</v>
       </c>
+      <c r="H40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bow.jpg',</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
+      <c r="B41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6">
         <v>1.0</v>
       </c>
+      <c r="H41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'box.jpg',</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>94</v>
+      <c r="B42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="6">
         <v>1.0</v>
       </c>
+      <c r="H42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'CD.jpg',</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>94</v>
+      <c r="B43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="6">
         <v>1.0</v>
       </c>
+      <c r="H43" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'perfume.jpg',</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6">
         <v>1.0</v>
       </c>
+      <c r="H44" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'button.jpg',</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>94</v>
+      <c r="B45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6">
         <v>1.0</v>
       </c>
+      <c r="H45" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'cat.jpg',</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>94</v>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="6">
         <v>1.0</v>
       </c>
+      <c r="H46" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'chocolate.jpg',</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>94</v>
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="6">
         <v>1.0</v>
       </c>
+      <c r="H47" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'clock.jpg',</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>94</v>
+      <c r="B48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6">
         <v>1.0</v>
       </c>
+      <c r="H48" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'coconut.jpg',</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>94</v>
+      <c r="B49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="6">
         <v>1.0</v>
       </c>
+      <c r="H49" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'couch.jpg',</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>94</v>
+      <c r="B50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="6">
         <v>1.0</v>
       </c>
+      <c r="H50" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'cup.jpg',</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>94</v>
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>1.0</v>
       </c>
+      <c r="H51" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'doll.jpg',</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>94</v>
+      <c r="B52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>1.0</v>
       </c>
+      <c r="H52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'headphones.jpg',</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>94</v>
+      <c r="B53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="6">
         <v>1.0</v>
       </c>
+      <c r="H53" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'matchesbox.jpg',</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>94</v>
+      <c r="B54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6">
         <v>1.0</v>
       </c>
+      <c r="H54" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'owl.jpg',</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
+      <c r="B55" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="6">
         <v>1.0</v>
       </c>
+      <c r="H55" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'pants.jpg',</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
+      <c r="B56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="6">
         <v>1.0</v>
       </c>
+      <c r="H56" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'dustbin.jpg',</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6">
         <v>1.0</v>
       </c>
+      <c r="H57" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'pencil.jpg',</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>94</v>
+      <c r="B58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="6">
         <v>1.0</v>
       </c>
+      <c r="H58" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'pillow.jpg',</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>94</v>
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6">
         <v>1.0</v>
       </c>
+      <c r="H59" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'purse.jpg',</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>94</v>
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6">
         <v>1.0</v>
       </c>
+      <c r="H60" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'ring.jpg',</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>94</v>
+      <c r="B61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
         <v>1.0</v>
       </c>
+      <c r="H61" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'dollar.jpg',</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>94</v>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="6">
         <v>1.0</v>
       </c>
+      <c r="H62" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'rubberduck.jpg',</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>94</v>
+      <c r="B63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6">
         <v>1.0</v>
       </c>
+      <c r="H63" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'shirt.jpg',</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>94</v>
+      <c r="B64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64" s="6">
         <v>1.0</v>
       </c>
+      <c r="H64" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'soap.jpg',</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>94</v>
+      <c r="B65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="6">
         <v>1.0</v>
       </c>
+      <c r="H65" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'sock.jpg',</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="6">
         <v>1.0</v>
       </c>
+      <c r="H66" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'spoon.jpg',</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>94</v>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="6">
         <v>1.0</v>
       </c>
+      <c r="H67" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'teddybear.jpg',</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>94</v>
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" s="6">
         <v>1.0</v>
       </c>
+      <c r="H68" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tissuebox.jpg',</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
+      <c r="B69" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E69" s="6">
         <v>1.0</v>
       </c>
+      <c r="H69" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'can.jpg',</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>94</v>
+      <c r="B70" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E70" s="6">
         <v>1.0</v>
       </c>
+      <c r="H70" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'papercup.jpg',</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>94</v>
+      <c r="B71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6">
         <v>1.0</v>
       </c>
+      <c r="H71" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'wallet.jpg',</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>94</v>
+      <c r="B72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E72" s="6">
         <v>1.0</v>
       </c>
+      <c r="H72" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'watch.jpg',</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>94</v>
+      <c r="B73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6">
         <v>1.0</v>
+      </c>
+      <c r="H73" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'ceramicplate.jpg',</v>
       </c>
     </row>
   </sheetData>
@@ -2553,16 +2919,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6">
         <v>2.0</v>
@@ -2573,16 +2939,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6">
         <v>2.0</v>
@@ -2593,16 +2959,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6">
         <v>2.0</v>
@@ -2613,16 +2979,16 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6">
         <v>2.0</v>
@@ -2633,16 +2999,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6">
         <v>2.0</v>
@@ -2653,16 +3019,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6">
         <v>2.0</v>
@@ -2673,16 +3039,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="6">
         <v>2.0</v>
@@ -2693,16 +3059,16 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
         <v>2.0</v>
@@ -2713,16 +3079,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6">
         <v>2.0</v>
@@ -2733,16 +3099,16 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="6">
         <v>2.0</v>
@@ -2753,16 +3119,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="6">
         <v>2.0</v>
@@ -2773,16 +3139,16 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" s="6">
         <v>2.0</v>
@@ -2793,16 +3159,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="6">
         <v>2.0</v>
@@ -2813,16 +3179,16 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6">
         <v>2.0</v>
@@ -2833,16 +3199,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6">
         <v>2.0</v>
@@ -2853,16 +3219,16 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6">
         <v>2.0</v>
@@ -2873,16 +3239,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="6">
         <v>2.0</v>
@@ -2893,16 +3259,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="6">
         <v>2.0</v>
@@ -2913,16 +3279,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" s="6">
         <v>2.0</v>
@@ -2933,16 +3299,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="6">
         <v>2.0</v>
@@ -2953,16 +3319,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="6">
         <v>2.0</v>
@@ -2973,16 +3339,16 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="6">
         <v>2.0</v>
@@ -2993,16 +3359,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="6">
         <v>2.0</v>
@@ -3013,16 +3379,16 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="6">
         <v>2.0</v>
@@ -3032,816 +3398,816 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>16</v>
+      <c r="B26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
+      <c r="B27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>16</v>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>16</v>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
+      <c r="B34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>16</v>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
+      <c r="B37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>94</v>
+      <c r="B39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>94</v>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
+      <c r="B41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>94</v>
+      <c r="B42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>94</v>
+      <c r="B43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>94</v>
+      <c r="B45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>94</v>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>94</v>
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>94</v>
+      <c r="B48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>94</v>
+      <c r="B49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>94</v>
+      <c r="B50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>94</v>
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>94</v>
+      <c r="B52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>94</v>
+      <c r="B53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>94</v>
+      <c r="B54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
+      <c r="B55" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
+      <c r="B56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>94</v>
+      <c r="B58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>94</v>
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>94</v>
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>94</v>
+      <c r="B61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>94</v>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>94</v>
+      <c r="B63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>94</v>
+      <c r="B64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>94</v>
+      <c r="B65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>94</v>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>94</v>
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
+      <c r="B69" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E69" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>94</v>
+      <c r="B70" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E70" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>94</v>
+      <c r="B71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>94</v>
+      <c r="B72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E72" s="6">
         <v>2.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>94</v>
+      <c r="B73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6">
         <v>2.0</v>
@@ -3888,16 +4254,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="6">
         <v>3.0</v>
@@ -3908,16 +4274,16 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6">
         <v>3.0</v>
@@ -3928,16 +4294,16 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6">
         <v>3.0</v>
@@ -3948,16 +4314,16 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6">
         <v>3.0</v>
@@ -3968,16 +4334,16 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6">
         <v>3.0</v>
@@ -3988,16 +4354,16 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6">
         <v>3.0</v>
@@ -4008,16 +4374,16 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6">
         <v>3.0</v>
@@ -4028,16 +4394,16 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6">
         <v>3.0</v>
@@ -4048,16 +4414,16 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6">
         <v>3.0</v>
@@ -4068,16 +4434,16 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6">
         <v>3.0</v>
@@ -4088,16 +4454,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6">
         <v>3.0</v>
@@ -4108,16 +4474,16 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6">
         <v>3.0</v>
@@ -4128,16 +4494,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="6">
         <v>3.0</v>
@@ -4148,16 +4514,16 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="6">
         <v>3.0</v>
@@ -4168,16 +4534,16 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="6">
         <v>3.0</v>
@@ -4188,16 +4554,16 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="6">
         <v>3.0</v>
@@ -4208,16 +4574,16 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6">
         <v>3.0</v>
@@ -4228,16 +4594,16 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6">
         <v>3.0</v>
@@ -4248,16 +4614,16 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="6">
         <v>3.0</v>
@@ -4268,16 +4634,16 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="6">
         <v>3.0</v>
@@ -4288,16 +4654,16 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="6">
         <v>3.0</v>
@@ -4308,16 +4674,16 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6">
         <v>3.0</v>
@@ -4328,16 +4694,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="6">
         <v>3.0</v>
@@ -4348,16 +4714,16 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="6">
         <v>3.0</v>
@@ -4367,816 +4733,816 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>16</v>
+      <c r="B26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
+      <c r="B27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>16</v>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>16</v>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
+      <c r="B34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>16</v>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
+      <c r="B37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>94</v>
+      <c r="B39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>94</v>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
+      <c r="B41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>94</v>
+      <c r="B42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>94</v>
+      <c r="B43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>94</v>
+      <c r="B45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>94</v>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>94</v>
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>94</v>
+      <c r="B48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>94</v>
+      <c r="B49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>94</v>
+      <c r="B50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>94</v>
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>94</v>
+      <c r="B52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>94</v>
+      <c r="B53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>94</v>
+      <c r="B54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
+      <c r="B55" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
+      <c r="B56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>94</v>
+      <c r="B58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>94</v>
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>94</v>
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>94</v>
+      <c r="B61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>94</v>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>94</v>
+      <c r="B63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>94</v>
+      <c r="B64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>94</v>
+      <c r="B65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>94</v>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>94</v>
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
+      <c r="B69" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E69" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="12" t="s">
+      <c r="A70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>94</v>
+      <c r="B70" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E70" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>94</v>
+      <c r="B71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>94</v>
+      <c r="B72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E72" s="6">
         <v>3.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>94</v>
+      <c r="B73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6">
         <v>3.0</v>
@@ -5222,15 +5588,15 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="6">
@@ -5242,15 +5608,15 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="6">
@@ -5262,15 +5628,15 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="6">
@@ -5282,15 +5648,15 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="6">
@@ -5302,15 +5668,15 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="6">
@@ -5322,15 +5688,15 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="6">
@@ -5342,15 +5708,15 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6">
@@ -5362,15 +5728,15 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="6">
@@ -5382,15 +5748,15 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="6">
@@ -5402,15 +5768,15 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="6">
@@ -5422,15 +5788,15 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="6">
@@ -5442,15 +5808,15 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="6">
@@ -5462,15 +5828,15 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="6">
@@ -5482,15 +5848,15 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="6">
@@ -5502,15 +5868,15 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="6">
@@ -5522,15 +5888,15 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6">
@@ -5542,15 +5908,15 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="6">
@@ -5562,15 +5928,15 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="6">
@@ -5582,15 +5948,15 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="6">
@@ -5602,15 +5968,15 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="6">
@@ -5622,15 +5988,15 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="6">
@@ -5642,15 +6008,15 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="6">
@@ -5662,15 +6028,15 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="6">
@@ -5682,15 +6048,15 @@
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="6">
@@ -5701,819 +6067,1005 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>16</v>
+      <c r="B26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
+      <c r="B27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>16</v>
+      <c r="B28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>16</v>
+      <c r="B30" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
+      <c r="B31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
+      <c r="B33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
+      <c r="B34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E34" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>16</v>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
+      <c r="B37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>94</v>
       </c>
+      <c r="C38" s="11" t="s">
+        <v>95</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>94</v>
+      <c r="B39" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E39" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>94</v>
+      <c r="B40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>94</v>
+      <c r="B41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>94</v>
+      <c r="B42" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E42" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>94</v>
+      <c r="B43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>94</v>
+      <c r="B44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>94</v>
+      <c r="B45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E45" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>94</v>
+      <c r="B46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>94</v>
+      <c r="B47" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="A48" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>94</v>
+      <c r="B48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>94</v>
+      <c r="B49" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="A50" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>94</v>
+      <c r="B50" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E50" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="A51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>94</v>
+      <c r="B51" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>94</v>
+      <c r="B52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E52" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="A53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>94</v>
+      <c r="B53" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="A54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>94</v>
+      <c r="B54" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>94</v>
+      <c r="B55" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>94</v>
+      <c r="B56" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E56" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
+      <c r="B57" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="A58" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>94</v>
+      <c r="B58" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E58" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>94</v>
+      <c r="B59" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>94</v>
+      <c r="B60" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>94</v>
+      <c r="B61" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E61" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>94</v>
+      <c r="B62" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E62" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>94</v>
+      <c r="B63" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="A64" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>94</v>
+      <c r="B64" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E64" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>94</v>
+      <c r="B65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E65" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="B66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E66" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>94</v>
+      <c r="B67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E67" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>94</v>
+      <c r="B68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E68" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" s="12" t="s">
+      <c r="A69" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>94</v>
+      <c r="B69" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E69" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="8" t="s">
+      <c r="A70" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>94</v>
+      <c r="B70" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E70" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>94</v>
+      <c r="B71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="A72" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>94</v>
+      <c r="B72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E72" s="6">
         <v>4.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="A73" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>94</v>
+      <c r="B73" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6">
         <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.38"/>
+    <col customWidth="1" min="2" max="2" width="36.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11">
+        <v>99.0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f t="shared" ref="H2:H7" si="1">CONCATENATE("'",C2, "'", ",")</f>
+        <v>'cupB.jpg',</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11">
+        <v>99.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'cigaretteB.jpg',</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="11">
+        <v>99.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H4" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'hammerB.jpg',</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16">
+        <v>99.0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bookB.jpg',</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="16">
+        <v>99.0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'bananaB.jpg',</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11">
+        <v>99.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>'tableB.jpg',</v>
       </c>
     </row>
   </sheetData>
